--- a/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 10 07.xlsx
+++ b/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 10 07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D197220-AE4D-964E-AEBA-27363B39E2AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAEAA8-6229-324F-A7D4-D25CD70D8C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="11620" windowHeight="17200" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
+    <workbookView xWindow="52200" yWindow="-2720" windowWidth="14740" windowHeight="23340" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="25">
   <si>
     <t>Injury</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>How much of injury is run?</t>
+  </si>
+  <si>
+    <t>MALES</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>FEMALES</t>
   </si>
 </sst>
 </file>
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C04E9F-441B-3545-BD1F-8BC23CAF93DD}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,9 +527,15 @@
     <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -535,8 +550,21 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +598,26 @@
       <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -605,8 +651,24 @@
       <c r="L3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -638,8 +700,24 @@
         <v>7</v>
       </c>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,8 +749,24 @@
         <v>7</v>
       </c>
       <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -704,8 +798,24 @@
         <v>7</v>
       </c>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,8 +847,24 @@
         <v>7</v>
       </c>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -770,8 +896,24 @@
         <v>7</v>
       </c>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -803,8 +945,24 @@
         <v>7</v>
       </c>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,8 +994,24 @@
         <v>7</v>
       </c>
       <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -869,8 +1043,24 @@
         <v>7</v>
       </c>
       <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -902,8 +1092,24 @@
         <v>7</v>
       </c>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -937,8 +1143,24 @@
       <c r="L13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1192,24 @@
         <v>7</v>
       </c>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,8 +1241,24 @@
         <v>7</v>
       </c>
       <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1036,8 +1290,24 @@
         <v>7</v>
       </c>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>55</v>
+      </c>
+      <c r="P16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1069,8 +1339,24 @@
         <v>7</v>
       </c>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1388,24 @@
         <v>7</v>
       </c>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1135,8 +1437,24 @@
         <v>7</v>
       </c>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1168,8 +1486,24 @@
         <v>7</v>
       </c>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1201,8 +1535,24 @@
         <v>7</v>
       </c>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1234,8 +1584,24 @@
         <v>7</v>
       </c>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1269,8 +1635,24 @@
       <c r="L23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1302,8 +1684,24 @@
         <v>7</v>
       </c>
       <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1335,8 +1733,24 @@
         <v>7</v>
       </c>
       <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>65</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1368,8 +1782,24 @@
         <v>7</v>
       </c>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>55</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1401,8 +1831,24 @@
         <v>17</v>
       </c>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1434,8 +1880,24 @@
         <v>17</v>
       </c>
       <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>35</v>
+      </c>
+      <c r="P28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1467,8 +1929,24 @@
         <v>17</v>
       </c>
       <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1500,8 +1978,24 @@
         <v>17</v>
       </c>
       <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1533,8 +2027,24 @@
         <v>17</v>
       </c>
       <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1566,8 +2076,24 @@
         <v>17</v>
       </c>
       <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -1601,8 +2127,24 @@
       <c r="L33" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1634,8 +2176,24 @@
         <v>17</v>
       </c>
       <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="P34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -1667,8 +2225,24 @@
         <v>17</v>
       </c>
       <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1700,8 +2274,24 @@
         <v>17</v>
       </c>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -1733,8 +2323,24 @@
         <v>7</v>
       </c>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -1766,8 +2372,24 @@
         <v>17</v>
       </c>
       <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>35</v>
+      </c>
+      <c r="P38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1799,8 +2421,24 @@
         <v>7</v>
       </c>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+      <c r="P39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -1832,8 +2470,24 @@
         <v>17</v>
       </c>
       <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <v>15</v>
+      </c>
+      <c r="P40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1865,8 +2519,24 @@
         <v>7</v>
       </c>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1898,8 +2568,24 @@
         <v>17</v>
       </c>
       <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -1930,11 +2616,27 @@
       <c r="K43" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -1966,8 +2668,24 @@
         <v>7</v>
       </c>
       <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44">
+        <v>75</v>
+      </c>
+      <c r="P44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" t="s">
+        <v>17</v>
+      </c>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -1999,8 +2717,24 @@
         <v>7</v>
       </c>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45">
+        <v>65</v>
+      </c>
+      <c r="P45" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2032,8 +2766,24 @@
         <v>7</v>
       </c>
       <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>55</v>
+      </c>
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2065,8 +2815,24 @@
         <v>7</v>
       </c>
       <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" t="s">
+        <v>17</v>
+      </c>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -2098,8 +2864,24 @@
         <v>17</v>
       </c>
       <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48">
+        <v>35</v>
+      </c>
+      <c r="P48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" t="s">
+        <v>17</v>
+      </c>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -2131,8 +2913,24 @@
         <v>7</v>
       </c>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49">
+        <v>25</v>
+      </c>
+      <c r="P49" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -2164,8 +2962,24 @@
         <v>7</v>
       </c>
       <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50">
+        <v>15</v>
+      </c>
+      <c r="P50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -2197,8 +3011,24 @@
         <v>7</v>
       </c>
       <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" t="s">
+        <v>17</v>
+      </c>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
@@ -2230,8 +3060,24 @@
         <v>7</v>
       </c>
       <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="6"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +3094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
@@ -2265,7 +3111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +3128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +3179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +3196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -2367,7 +3213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +3230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -2401,7 +3247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -2418,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3928,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="S43:S52"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="S13:S22"/>
+    <mergeCell ref="S23:S32"/>
+    <mergeCell ref="S33:S42"/>
     <mergeCell ref="L33:L42"/>
     <mergeCell ref="L43:L52"/>
     <mergeCell ref="A1:E1"/>
